--- a/mc/indicators/xl/inflation.xlsx
+++ b/mc/indicators/xl/inflation.xlsx
@@ -8511,58 +8511,58 @@
         <v>107</v>
       </c>
       <c r="B19" s="1">
-        <v>14.7</v>
+        <v>4.8</v>
       </c>
       <c r="C19" s="1">
-        <v>8.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="1">
-        <v>8.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="F19" s="1">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="G19" s="1">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H19" s="1">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="I19" s="1">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="J19" s="1">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="K19" s="1">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="L19" s="1">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M19" s="1">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O19" s="1">
         <v>1.8</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="P19" s="1">
-        <v>2.1</v>
-      </c>
       <c r="Q19" s="1">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R19" s="1">
         <v>2.4</v>
       </c>
       <c r="S19" s="1">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T19" s="1">
         <v>3.4</v>
@@ -8571,7 +8571,7 @@
         <v>0.2</v>
       </c>
       <c r="V19" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="W19" s="1">
         <v>2.7</v>
@@ -8583,13 +8583,13 @@
         <v>1.4</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC19" s="1">
         <v>1.7</v>
@@ -8598,7 +8598,7 @@
         <v>1.7</v>
       </c>
       <c r="AE19" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="1">
         <v>2.1</v>
